--- a/data/tek_data/GHD_Zonierung.xlsx
+++ b/data/tek_data/GHD_Zonierung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Verwaltungsgebäude" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Gewerbliche und industrielle" sheetId="9" r:id="rId9"/>
     <sheet name="Verkaufsstätten" sheetId="10" r:id="rId10"/>
     <sheet name="Technikgebäude" sheetId="11" r:id="rId11"/>
+    <sheet name="Wohngebäude" sheetId="12" r:id="rId12"/>
+    <sheet name="Wohngebäude (MFH)" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="135">
   <si>
     <t>Verwaltungsgebäude</t>
   </si>
@@ -427,6 +429,18 @@
   </si>
   <si>
     <t>Sonstige Aufenthaltsräume</t>
+  </si>
+  <si>
+    <t>Wohngebäude</t>
+  </si>
+  <si>
+    <t>Wohnen</t>
+  </si>
+  <si>
+    <t>Wohngebäude (MFH)</t>
+  </si>
+  <si>
+    <t>Wohnen Mehrfamilienhaus</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1530,7 @@
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="73">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1525,6 +1539,27 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1536,13 +1571,25 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1554,40 +1601,25 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1656,6 +1688,15 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1675,6 +1716,15 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1734,6 +1784,15 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1753,6 +1812,15 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1812,6 +1880,15 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1831,6 +1908,15 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1890,6 +1976,15 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1909,6 +2004,15 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1957,36 +2061,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -2314,7 +2388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -3109,32 +3183,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="2" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:I6 A8:I26 A7:D7 F7:I7">
-    <cfRule type="expression" dxfId="63" priority="5">
+    <cfRule type="expression" dxfId="71" priority="5">
       <formula>AND($Q3=1,$Q4=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="62" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="4" operator="lessThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="3" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:I27">
-    <cfRule type="expression" dxfId="60" priority="28">
+    <cfRule type="expression" dxfId="68" priority="28">
       <formula>AND($Q27=1,$H28=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="67" priority="1">
       <formula>AND($Q7=1,$Q8=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3941,32 +4015,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:I5 A7:I26 A6:D6 F6:I6">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>AND($Q3=1,$Q4=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:I27">
-    <cfRule type="expression" dxfId="15" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>AND($Q27=1,$H28=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>AND($Q6=1,$Q7=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3979,7 +4053,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4772,31 +4846,313 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:I26">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>AND($Q3=1,$Q4=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:I27">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>AND($Q27=1,$H28=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="84.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="77.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="67">
+        <v>12</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="69">
+        <v>0</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="73">
+        <v>28</v>
+      </c>
+      <c r="I1" s="74" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="77">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="59">
+        <v>1</v>
+      </c>
+      <c r="G3" s="60">
+        <v>0.21876329214444185</v>
+      </c>
+      <c r="H3" s="47">
+        <v>3.1841484604593767E-2</v>
+      </c>
+      <c r="I3" s="78">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{92C2D4E6-524C-4892-B786-C37919AAE390}">
+            <xm:f>AND(Technikgebäude!$Q3=1,Technikgebäude!$Q4=0)</xm:f>
+            <x14:dxf>
+              <border>
+                <bottom style="thin">
+                  <color auto="1"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A3:I3</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="84.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="77.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="67">
+        <v>12</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="69">
+        <v>0</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="73">
+        <v>28</v>
+      </c>
+      <c r="I1" s="74" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="77">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="59">
+        <v>1</v>
+      </c>
+      <c r="G3" s="60">
+        <v>0.21876329214444185</v>
+      </c>
+      <c r="H3" s="47">
+        <v>3.1841484604593767E-2</v>
+      </c>
+      <c r="I3" s="78">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{6ED4008D-D18C-4D94-983D-FCCE591D14DA}">
+            <xm:f>AND(Technikgebäude!$Q3=1,Technikgebäude!$Q4=0)</xm:f>
+            <x14:dxf>
+              <border>
+                <bottom style="thin">
+                  <color auto="1"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A3:I3</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5598,32 +5954,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:I7 A9:I26 A8:D8 F8:I8">
-    <cfRule type="expression" dxfId="59" priority="2">
+    <cfRule type="expression" dxfId="66" priority="2">
       <formula>AND($Q3=1,$Q4=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="58" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="6" operator="lessThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="57" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="5" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:I27">
-    <cfRule type="expression" dxfId="55" priority="26">
+    <cfRule type="expression" dxfId="62" priority="26">
       <formula>AND($Q27=1,$H28=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="61" priority="1">
       <formula>AND($Q8=1,$Q9=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6429,32 +6785,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:I11 A13:I26 A12:D12 F12:I12">
-    <cfRule type="expression" dxfId="54" priority="2">
+    <cfRule type="expression" dxfId="60" priority="2">
       <formula>AND($Q3=1,$Q4=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="53" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="6" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="52" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="5" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="51" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="lessThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:I27">
-    <cfRule type="expression" dxfId="50" priority="24">
+    <cfRule type="expression" dxfId="56" priority="24">
       <formula>AND($Q27=1,$H28=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="55" priority="1">
       <formula>AND($Q12=1,$Q13=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7260,32 +7616,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:I5 A7:I26 A6:D6 F6:I6">
-    <cfRule type="expression" dxfId="49" priority="2">
+    <cfRule type="expression" dxfId="54" priority="2">
       <formula>AND($Q3=1,$Q4=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="48" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="6" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="47" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="5" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="46" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="4" operator="lessThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:I27">
-    <cfRule type="expression" dxfId="45" priority="22">
+    <cfRule type="expression" dxfId="50" priority="22">
       <formula>AND($Q27=1,$H28=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="49" priority="1">
       <formula>AND($Q6=1,$Q7=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8091,32 +8447,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:I4 A6:I26 A5:D5 F5:I5">
-    <cfRule type="expression" dxfId="44" priority="2">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>AND($Q3=1,$Q4=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="lessThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:I27">
-    <cfRule type="expression" dxfId="40" priority="20">
+    <cfRule type="expression" dxfId="44" priority="20">
       <formula>AND($Q27=1,$H28=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="43" priority="1">
       <formula>AND($Q5=1,$Q6=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8922,32 +9278,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:I26 A3:D3 F3:I3">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="42" priority="2">
       <formula>AND($Q3=1,$Q4=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="lessThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:I27">
-    <cfRule type="expression" dxfId="35" priority="18">
+    <cfRule type="expression" dxfId="38" priority="18">
       <formula>AND($Q27=1,$H28=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>AND($Q3=1,$Q4=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9753,32 +10109,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:I5 A7:I26 A6:D6 F6:I6">
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>AND($Q3=1,$Q4=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="lessThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:I27">
-    <cfRule type="expression" dxfId="30" priority="16">
+    <cfRule type="expression" dxfId="32" priority="16">
       <formula>AND($Q27=1,$H28=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>AND($Q6=1,$Q7=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10584,32 +10940,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:I7 A9:I26 A8:D8 F8:I8">
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>AND($Q3=1,$Q4=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="lessThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:I27">
-    <cfRule type="expression" dxfId="25" priority="14">
+    <cfRule type="expression" dxfId="26" priority="14">
       <formula>AND($Q27=1,$H28=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>AND($Q8=1,$Q9=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11440,7 +11796,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>AND($Q9=1,$Q10=0)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/tek_data/GHD_Zonierung.xlsx
+++ b/data/tek_data/GHD_Zonierung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Verwaltungsgebäude" sheetId="1" r:id="rId1"/>
@@ -4878,8 +4878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4959,7 +4959,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="F3" s="59">
         <v>1</v>
@@ -5019,8 +5019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5100,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="F3" s="59">
         <v>1</v>

--- a/data/tek_data/GHD_Zonierung.xlsx
+++ b/data/tek_data/GHD_Zonierung.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D5916C-6841-4D96-81EA-79FAE5DB2F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Verwaltungsgebäude" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="136">
   <si>
     <t>Verwaltungsgebäude</t>
   </si>
@@ -323,9 +324,6 @@
     <t>Wohnen (EFH)</t>
   </si>
   <si>
-    <t>Wohnen – Einfamilienhaus</t>
-  </si>
-  <si>
     <t>Kultureinrichtungen</t>
   </si>
   <si>
@@ -441,27 +439,35 @@
   </si>
   <si>
     <t>Wohnen Mehrfamilienhaus</t>
+  </si>
+  <si>
+    <t>Wohnen Mehrfamilienhaus</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wohnen</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -474,7 +480,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -487,7 +493,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -495,6 +501,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1326,10 +1339,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1353,10 +1366,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1380,10 +1393,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1404,10 +1417,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1434,10 +1447,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1446,19 +1459,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1518,7 +1531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1526,20 +1539,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="A-DB-Tabellenkopf" xfId="2"/>
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="A-DB-Tabellenkopf" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="73">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="63">
     <dxf>
       <fill>
         <patternFill>
@@ -1640,15 +1644,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1668,15 +1663,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -1736,15 +1722,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1764,15 +1741,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -1832,15 +1800,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1860,15 +1819,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -1928,15 +1878,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1956,15 +1897,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -2024,6 +1956,36 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color auto="1"/>
@@ -2070,45 +2032,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2385,22 +2308,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="84.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125"/>
-    <col min="5" max="5" width="77.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625"/>
+    <col min="5" max="5" width="77.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -2427,7 +2350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="107.4" thickBot="1">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -2456,7 +2379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -2485,7 +2408,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4">
       <c r="A4" s="23">
         <v>2</v>
       </c>
@@ -2514,7 +2437,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4">
       <c r="A5" s="23">
         <v>3</v>
       </c>
@@ -2543,7 +2466,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -2572,7 +2495,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4">
       <c r="A7" s="23">
         <v>5</v>
       </c>
@@ -2586,7 +2509,7 @@
         <v>0.64500000000000002</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" s="28">
         <v>1</v>
@@ -2601,7 +2524,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4">
       <c r="A8" s="23">
         <v>6</v>
       </c>
@@ -2630,7 +2553,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4">
       <c r="A9" s="23">
         <v>7</v>
       </c>
@@ -2659,7 +2582,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4">
       <c r="A10" s="23">
         <v>8</v>
       </c>
@@ -2688,7 +2611,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4">
       <c r="A11" s="23">
         <v>9</v>
       </c>
@@ -2717,7 +2640,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4">
       <c r="A12" s="23">
         <v>10</v>
       </c>
@@ -2746,7 +2669,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4">
       <c r="A13" s="23">
         <v>11</v>
       </c>
@@ -2775,7 +2698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4">
       <c r="A14" s="23">
         <v>12</v>
       </c>
@@ -2804,7 +2727,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4">
       <c r="A15" s="23">
         <v>13</v>
       </c>
@@ -2833,7 +2756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4">
       <c r="A16" s="23">
         <v>14</v>
       </c>
@@ -2862,7 +2785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4">
       <c r="A17" s="23">
         <v>15</v>
       </c>
@@ -2891,7 +2814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="14.4">
       <c r="A18" s="23">
         <v>16</v>
       </c>
@@ -2920,7 +2843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="14.4">
       <c r="A19" s="23">
         <v>17</v>
       </c>
@@ -2949,7 +2872,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="14.4">
       <c r="A20" s="23">
         <v>18</v>
       </c>
@@ -2978,7 +2901,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="14.4">
       <c r="A21" s="32">
         <v>19</v>
       </c>
@@ -3007,7 +2930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="14.4">
       <c r="A22" s="14">
         <v>20</v>
       </c>
@@ -3036,7 +2959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="14.4">
       <c r="A23" s="23">
         <v>21</v>
       </c>
@@ -3065,7 +2988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="14.4">
       <c r="A24" s="23">
         <v>22</v>
       </c>
@@ -3094,7 +3017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="14.4">
       <c r="A25" s="23">
         <v>23</v>
       </c>
@@ -3123,7 +3046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="14.4">
       <c r="A26" s="23">
         <v>24</v>
       </c>
@@ -3152,7 +3075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="32">
         <v>25</v>
       </c>
@@ -3182,34 +3105,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A3:I26">
+    <cfRule type="expression" dxfId="62" priority="1">
+      <formula>AND($Q3=1,$Q4=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:I27">
+    <cfRule type="expression" dxfId="61" priority="28">
+      <formula>AND($Q27=1,$H28=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="72" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="2" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:I6 A8:I26 A7:D7 F7:I7">
-    <cfRule type="expression" dxfId="71" priority="5">
-      <formula>AND($Q3=1,$Q4=0)</formula>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
+      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="70" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="4" operator="lessThan">
       <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="69" priority="3" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:I27">
-    <cfRule type="expression" dxfId="68" priority="28">
-      <formula>AND($Q27=1,$H28=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="67" priority="1">
-      <formula>AND($Q7=1,$Q8=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3218,26 +3137,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="84.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="77.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="77.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1">
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" s="3">
         <v>0</v>
@@ -3247,19 +3166,19 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="H1" s="7">
         <v>685</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="102" thickBot="1">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -3288,7 +3207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -3317,7 +3236,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4">
       <c r="A4" s="23">
         <v>2</v>
       </c>
@@ -3346,7 +3265,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4">
       <c r="A5" s="23">
         <v>3</v>
       </c>
@@ -3375,7 +3294,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -3389,7 +3308,7 @@
         <v>0.83100000000000007</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" s="61">
         <v>1</v>
@@ -3404,7 +3323,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4">
       <c r="A7" s="23">
         <v>5</v>
       </c>
@@ -3433,7 +3352,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4">
       <c r="A8" s="23">
         <v>6</v>
       </c>
@@ -3462,7 +3381,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4">
       <c r="A9" s="23">
         <v>7</v>
       </c>
@@ -3491,7 +3410,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4">
       <c r="A10" s="23">
         <v>8</v>
       </c>
@@ -3520,7 +3439,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4">
       <c r="A11" s="23">
         <v>9</v>
       </c>
@@ -3549,7 +3468,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4">
       <c r="A12" s="32">
         <v>10</v>
       </c>
@@ -3578,7 +3497,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4">
       <c r="A13" s="14">
         <v>11</v>
       </c>
@@ -3607,7 +3526,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4">
       <c r="A14" s="23">
         <v>12</v>
       </c>
@@ -3636,7 +3555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4">
       <c r="A15" s="23">
         <v>13</v>
       </c>
@@ -3665,7 +3584,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4">
       <c r="A16" s="23">
         <v>14</v>
       </c>
@@ -3694,7 +3613,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4">
       <c r="A17" s="23">
         <v>15</v>
       </c>
@@ -3723,7 +3642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="14.4">
       <c r="A18" s="23">
         <v>16</v>
       </c>
@@ -3752,7 +3671,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="14.4">
       <c r="A19" s="23">
         <v>17</v>
       </c>
@@ -3781,7 +3700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="14.4">
       <c r="A20" s="23">
         <v>18</v>
       </c>
@@ -3810,7 +3729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="14.4">
       <c r="A21" s="23">
         <v>19</v>
       </c>
@@ -3839,7 +3758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="14.4">
       <c r="A22" s="23">
         <v>20</v>
       </c>
@@ -3868,12 +3787,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="14.4">
       <c r="A23" s="23">
         <v>21</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" s="25">
         <v>2E-3</v>
@@ -3882,7 +3801,7 @@
         <v>0.99300000000000022</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F23" s="61">
         <v>0</v>
@@ -3897,7 +3816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="14.4">
       <c r="A24" s="23">
         <v>22</v>
       </c>
@@ -3926,7 +3845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="14.4">
       <c r="A25" s="23">
         <v>23</v>
       </c>
@@ -3955,7 +3874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="14.4">
       <c r="A26" s="23">
         <v>24</v>
       </c>
@@ -3984,7 +3903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="32">
         <v>25</v>
       </c>
@@ -4014,34 +3933,30 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:I5 A7:I26 A6:D6 F6:I6">
-    <cfRule type="expression" dxfId="18" priority="2">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A3:I26">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>AND($Q3=1,$Q4=0)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A27:I27">
+    <cfRule type="expression" dxfId="16" priority="10">
+      <formula>AND($Q27=1,$H28=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
       <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:I27">
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>AND($Q27=1,$H28=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="13" priority="1">
-      <formula>AND($Q6=1,$Q7=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4049,26 +3964,26 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="84.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="77.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="77.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="67">
         <v>11</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" s="69">
         <v>0</v>
@@ -4078,19 +3993,19 @@
       </c>
       <c r="E1" s="71"/>
       <c r="F1" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="72" t="s">
         <v>127</v>
-      </c>
-      <c r="G1" s="72" t="s">
-        <v>128</v>
       </c>
       <c r="H1" s="73">
         <v>28</v>
       </c>
       <c r="I1" s="74" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="102" thickBot="1">
       <c r="A2" s="75" t="s">
         <v>5</v>
       </c>
@@ -4119,7 +4034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4">
       <c r="A3" s="77">
         <v>1</v>
       </c>
@@ -4148,7 +4063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4">
       <c r="A4" s="79">
         <v>2</v>
       </c>
@@ -4177,7 +4092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4">
       <c r="A5" s="79">
         <v>3</v>
       </c>
@@ -4191,7 +4106,7 @@
         <v>0.60799999999999998</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" s="61">
         <v>1</v>
@@ -4206,7 +4121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4">
       <c r="A6" s="79">
         <v>4</v>
       </c>
@@ -4235,7 +4150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4">
       <c r="A7" s="79">
         <v>5</v>
       </c>
@@ -4264,7 +4179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4">
       <c r="A8" s="79">
         <v>6</v>
       </c>
@@ -4293,7 +4208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4">
       <c r="A9" s="79">
         <v>7</v>
       </c>
@@ -4322,7 +4237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4">
       <c r="A10" s="79">
         <v>8</v>
       </c>
@@ -4351,7 +4266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4">
       <c r="A11" s="79">
         <v>9</v>
       </c>
@@ -4380,7 +4295,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4">
       <c r="A12" s="79">
         <v>10</v>
       </c>
@@ -4409,7 +4324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4">
       <c r="A13" s="81">
         <v>11</v>
       </c>
@@ -4438,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4">
       <c r="A14" s="77">
         <v>12</v>
       </c>
@@ -4467,7 +4382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4">
       <c r="A15" s="79">
         <v>13</v>
       </c>
@@ -4496,7 +4411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4">
       <c r="A16" s="79">
         <v>14</v>
       </c>
@@ -4525,7 +4440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4">
       <c r="A17" s="79">
         <v>15</v>
       </c>
@@ -4554,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="14.4">
       <c r="A18" s="79">
         <v>16</v>
       </c>
@@ -4583,7 +4498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="14.4">
       <c r="A19" s="79">
         <v>17</v>
       </c>
@@ -4612,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="14.4">
       <c r="A20" s="79">
         <v>18</v>
       </c>
@@ -4641,7 +4556,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="14.4">
       <c r="A21" s="79">
         <v>19</v>
       </c>
@@ -4670,7 +4585,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="14.4">
       <c r="A22" s="79">
         <v>20</v>
       </c>
@@ -4699,7 +4614,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="14.4">
       <c r="A23" s="79">
         <v>21</v>
       </c>
@@ -4728,7 +4643,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="14.4">
       <c r="A24" s="79">
         <v>22</v>
       </c>
@@ -4757,7 +4672,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="14.4">
       <c r="A25" s="79">
         <v>23</v>
       </c>
@@ -4786,7 +4701,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="14.4">
       <c r="A26" s="79">
         <v>24</v>
       </c>
@@ -4815,7 +4730,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="83">
         <v>25</v>
       </c>
@@ -4845,29 +4760,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A3:I26">
     <cfRule type="expression" dxfId="12" priority="1">
       <formula>AND($Q3=1,$Q4=0)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A27:I27">
+    <cfRule type="expression" dxfId="11" priority="7">
+      <formula>AND($Q27=1,$H28=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
       <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:I27">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>AND($Q27=1,$H28=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4875,26 +4791,26 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="84.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="77.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="77.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="67">
         <v>12</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C1" s="69">
         <v>0</v>
@@ -4904,19 +4820,19 @@
       </c>
       <c r="E1" s="71"/>
       <c r="F1" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="72" t="s">
         <v>127</v>
-      </c>
-      <c r="G1" s="72" t="s">
-        <v>128</v>
       </c>
       <c r="H1" s="73">
         <v>28</v>
       </c>
       <c r="I1" s="74" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="102" thickBot="1">
       <c r="A2" s="75" t="s">
         <v>5</v>
       </c>
@@ -4945,12 +4861,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4">
       <c r="A3" s="77">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="16">
         <v>1</v>
@@ -4975,18 +4891,19 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5016,26 +4933,26 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="84.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="77.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="77.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="67">
         <v>12</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="69">
         <v>0</v>
@@ -5045,19 +4962,19 @@
       </c>
       <c r="E1" s="71"/>
       <c r="F1" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="72" t="s">
         <v>127</v>
-      </c>
-      <c r="G1" s="72" t="s">
-        <v>128</v>
       </c>
       <c r="H1" s="73">
         <v>28</v>
       </c>
       <c r="I1" s="74" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="102" thickBot="1">
       <c r="A2" s="75" t="s">
         <v>5</v>
       </c>
@@ -5086,12 +5003,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4">
       <c r="A3" s="77">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="16">
         <v>1</v>
@@ -5116,18 +5033,19 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5157,21 +5075,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="84.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="77.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="77.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1">
         <v>2</v>
       </c>
@@ -5198,7 +5116,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="102" thickBot="1">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -5227,7 +5145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -5256,7 +5174,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4">
       <c r="A4" s="23">
         <v>2</v>
       </c>
@@ -5285,7 +5203,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4">
       <c r="A5" s="23">
         <v>3</v>
       </c>
@@ -5314,7 +5232,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -5343,7 +5261,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4">
       <c r="A7" s="23">
         <v>5</v>
       </c>
@@ -5372,7 +5290,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4">
       <c r="A8" s="23">
         <v>6</v>
       </c>
@@ -5386,7 +5304,7 @@
         <v>0.7569999999999999</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" s="61">
         <v>1</v>
@@ -5401,7 +5319,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4">
       <c r="A9" s="23">
         <v>7</v>
       </c>
@@ -5430,7 +5348,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4">
       <c r="A10" s="23">
         <v>8</v>
       </c>
@@ -5459,7 +5377,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4">
       <c r="A11" s="23">
         <v>9</v>
       </c>
@@ -5488,7 +5406,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4">
       <c r="A12" s="23">
         <v>10</v>
       </c>
@@ -5517,7 +5435,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4">
       <c r="A13" s="23">
         <v>11</v>
       </c>
@@ -5546,7 +5464,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4">
       <c r="A14" s="23">
         <v>12</v>
       </c>
@@ -5575,7 +5493,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4">
       <c r="A15" s="32">
         <v>13</v>
       </c>
@@ -5604,7 +5522,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4">
       <c r="A16" s="14">
         <v>14</v>
       </c>
@@ -5633,7 +5551,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4">
       <c r="A17" s="23">
         <v>15</v>
       </c>
@@ -5662,7 +5580,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="14.4">
       <c r="A18" s="23">
         <v>16</v>
       </c>
@@ -5691,7 +5609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="14.4">
       <c r="A19" s="23">
         <v>17</v>
       </c>
@@ -5720,7 +5638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="14.4">
       <c r="A20" s="23">
         <v>18</v>
       </c>
@@ -5749,7 +5667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="14.4">
       <c r="A21" s="23">
         <v>19</v>
       </c>
@@ -5778,7 +5696,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="14.4">
       <c r="A22" s="23">
         <v>20</v>
       </c>
@@ -5807,7 +5725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="14.4">
       <c r="A23" s="23">
         <v>21</v>
       </c>
@@ -5836,7 +5754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="14.4">
       <c r="A24" s="23">
         <v>22</v>
       </c>
@@ -5865,7 +5783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="14.4">
       <c r="A25" s="23">
         <v>23</v>
       </c>
@@ -5894,7 +5812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="14.4">
       <c r="A26" s="23">
         <v>24</v>
       </c>
@@ -5923,7 +5841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="32">
         <v>25</v>
       </c>
@@ -5953,34 +5871,30 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:I7 A9:I26 A8:D8 F8:I8">
-    <cfRule type="expression" dxfId="66" priority="2">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A3:I26">
+    <cfRule type="expression" dxfId="57" priority="1">
       <formula>AND($Q3=1,$Q4=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="65" priority="6" operator="lessThan">
-      <formula>5</formula>
+  <conditionalFormatting sqref="A27:I27">
+    <cfRule type="expression" dxfId="56" priority="26">
+      <formula>AND($Q27=1,$H28=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
+      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="64" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="5" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:I27">
-    <cfRule type="expression" dxfId="62" priority="26">
-      <formula>AND($Q27=1,$H28=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="61" priority="1">
-      <formula>AND($Q8=1,$Q9=0)</formula>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="53" priority="6" operator="lessThan">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5988,21 +5902,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="84.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="77.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="77.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1">
         <v>3</v>
       </c>
@@ -6029,7 +5943,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="102" thickBot="1">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -6058,7 +5972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -6087,7 +6001,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4">
       <c r="A4" s="23">
         <v>2</v>
       </c>
@@ -6116,7 +6030,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4">
       <c r="A5" s="23">
         <v>3</v>
       </c>
@@ -6145,7 +6059,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -6174,7 +6088,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4">
       <c r="A7" s="23">
         <v>5</v>
       </c>
@@ -6203,7 +6117,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4">
       <c r="A8" s="23">
         <v>6</v>
       </c>
@@ -6232,7 +6146,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4">
       <c r="A9" s="23">
         <v>7</v>
       </c>
@@ -6261,7 +6175,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4">
       <c r="A10" s="23">
         <v>8</v>
       </c>
@@ -6290,7 +6204,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4">
       <c r="A11" s="23">
         <v>9</v>
       </c>
@@ -6319,7 +6233,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4">
       <c r="A12" s="23">
         <v>10</v>
       </c>
@@ -6333,7 +6247,7 @@
         <v>0.93499999999999994</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F12" s="61">
         <v>1</v>
@@ -6348,7 +6262,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4">
       <c r="A13" s="32">
         <v>11</v>
       </c>
@@ -6377,7 +6291,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4">
       <c r="A14" s="14">
         <v>12</v>
       </c>
@@ -6406,7 +6320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4">
       <c r="A15" s="23">
         <v>13</v>
       </c>
@@ -6435,7 +6349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4">
       <c r="A16" s="23">
         <v>14</v>
       </c>
@@ -6464,7 +6378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4">
       <c r="A17" s="23">
         <v>15</v>
       </c>
@@ -6493,7 +6407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="14.4">
       <c r="A18" s="23">
         <v>16</v>
       </c>
@@ -6522,7 +6436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="14.4">
       <c r="A19" s="23">
         <v>17</v>
       </c>
@@ -6551,7 +6465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="14.4">
       <c r="A20" s="23">
         <v>18</v>
       </c>
@@ -6580,7 +6494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="14.4">
       <c r="A21" s="23">
         <v>19</v>
       </c>
@@ -6609,7 +6523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="14.4">
       <c r="A22" s="23">
         <v>20</v>
       </c>
@@ -6638,7 +6552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="14.4">
       <c r="A23" s="23">
         <v>21</v>
       </c>
@@ -6667,7 +6581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="14.4">
       <c r="A24" s="23">
         <v>22</v>
       </c>
@@ -6696,7 +6610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="14.4">
       <c r="A25" s="23">
         <v>23</v>
       </c>
@@ -6725,7 +6639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="14.4">
       <c r="A26" s="23">
         <v>24</v>
       </c>
@@ -6754,7 +6668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="32">
         <v>25</v>
       </c>
@@ -6784,34 +6698,30 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:I11 A13:I26 A12:D12 F12:I12">
-    <cfRule type="expression" dxfId="60" priority="2">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A3:I26">
+    <cfRule type="expression" dxfId="52" priority="1">
       <formula>AND($Q3=1,$Q4=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="59" priority="6" operator="equal">
+  <conditionalFormatting sqref="A27:I27">
+    <cfRule type="expression" dxfId="51" priority="24">
+      <formula>AND($Q27=1,$H28=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="cellIs" dxfId="50" priority="5" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="58" priority="5" operator="equal">
+  <conditionalFormatting sqref="D1">
+    <cfRule type="cellIs" dxfId="49" priority="6" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="lessThan">
       <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:I27">
-    <cfRule type="expression" dxfId="56" priority="24">
-      <formula>AND($Q27=1,$H28=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="55" priority="1">
-      <formula>AND($Q12=1,$Q13=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6819,21 +6729,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="84.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="77.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="77.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1">
         <v>4</v>
       </c>
@@ -6860,7 +6770,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="102" thickBot="1">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -6889,7 +6799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -6918,7 +6828,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4">
       <c r="A4" s="23">
         <v>2</v>
       </c>
@@ -6947,7 +6857,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4">
       <c r="A5" s="23">
         <v>3</v>
       </c>
@@ -6976,7 +6886,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -6990,7 +6900,7 @@
         <v>0.56799999999999995</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" s="61">
         <v>1</v>
@@ -7005,7 +6915,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4">
       <c r="A7" s="23">
         <v>5</v>
       </c>
@@ -7034,7 +6944,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4">
       <c r="A8" s="23">
         <v>6</v>
       </c>
@@ -7063,7 +6973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4">
       <c r="A9" s="23">
         <v>7</v>
       </c>
@@ -7092,7 +7002,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4">
       <c r="A10" s="23">
         <v>8</v>
       </c>
@@ -7121,7 +7031,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4">
       <c r="A11" s="23">
         <v>9</v>
       </c>
@@ -7150,7 +7060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4">
       <c r="A12" s="23">
         <v>10</v>
       </c>
@@ -7179,7 +7089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4">
       <c r="A13" s="23">
         <v>11</v>
       </c>
@@ -7208,7 +7118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4">
       <c r="A14" s="23">
         <v>12</v>
       </c>
@@ -7237,7 +7147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4">
       <c r="A15" s="32">
         <v>13</v>
       </c>
@@ -7266,7 +7176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4">
       <c r="A16" s="14">
         <v>14</v>
       </c>
@@ -7295,7 +7205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4">
       <c r="A17" s="23">
         <v>15</v>
       </c>
@@ -7324,7 +7234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="14.4">
       <c r="A18" s="23">
         <v>16</v>
       </c>
@@ -7353,7 +7263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="14.4">
       <c r="A19" s="23">
         <v>17</v>
       </c>
@@ -7382,7 +7292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="14.4">
       <c r="A20" s="23">
         <v>18</v>
       </c>
@@ -7411,7 +7321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="14.4">
       <c r="A21" s="23">
         <v>19</v>
       </c>
@@ -7440,7 +7350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="14.4">
       <c r="A22" s="23">
         <v>20</v>
       </c>
@@ -7469,7 +7379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="14.4">
       <c r="A23" s="23">
         <v>21</v>
       </c>
@@ -7498,7 +7408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="14.4">
       <c r="A24" s="23">
         <v>22</v>
       </c>
@@ -7527,7 +7437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="14.4">
       <c r="A25" s="23">
         <v>23</v>
       </c>
@@ -7556,7 +7466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="14.4">
       <c r="A26" s="23">
         <v>24</v>
       </c>
@@ -7585,7 +7495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="32">
         <v>25</v>
       </c>
@@ -7615,34 +7525,30 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:I5 A7:I26 A6:D6 F6:I6">
-    <cfRule type="expression" dxfId="54" priority="2">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A3:I26">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>AND($Q3=1,$Q4=0)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A27:I27">
+    <cfRule type="expression" dxfId="46" priority="22">
+      <formula>AND($Q27=1,$H28=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="53" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="6" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="52" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="51" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="lessThan">
       <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:I27">
-    <cfRule type="expression" dxfId="50" priority="22">
-      <formula>AND($Q27=1,$H28=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="49" priority="1">
-      <formula>AND($Q6=1,$Q7=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7650,21 +7556,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="84.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="77.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="77.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1">
         <v>5</v>
       </c>
@@ -7691,7 +7597,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="102" thickBot="1">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -7720,7 +7626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -7749,7 +7655,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4">
       <c r="A4" s="23">
         <v>2</v>
       </c>
@@ -7778,7 +7684,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4">
       <c r="A5" s="23">
         <v>3</v>
       </c>
@@ -7792,7 +7698,7 @@
         <v>0.68799999999999994</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" s="61">
         <v>1</v>
@@ -7807,7 +7713,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -7836,7 +7742,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4">
       <c r="A7" s="23">
         <v>5</v>
       </c>
@@ -7865,7 +7771,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4">
       <c r="A8" s="23">
         <v>6</v>
       </c>
@@ -7894,7 +7800,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4">
       <c r="A9" s="23">
         <v>7</v>
       </c>
@@ -7923,7 +7829,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4">
       <c r="A10" s="23">
         <v>8</v>
       </c>
@@ -7952,7 +7858,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4">
       <c r="A11" s="23">
         <v>9</v>
       </c>
@@ -7981,7 +7887,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4">
       <c r="A12" s="32">
         <v>10</v>
       </c>
@@ -8010,7 +7916,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4">
       <c r="A13" s="14">
         <v>11</v>
       </c>
@@ -8039,7 +7945,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4">
       <c r="A14" s="23">
         <v>12</v>
       </c>
@@ -8068,7 +7974,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4">
       <c r="A15" s="23">
         <v>13</v>
       </c>
@@ -8097,7 +8003,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4">
       <c r="A16" s="23">
         <v>14</v>
       </c>
@@ -8126,7 +8032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4">
       <c r="A17" s="23">
         <v>15</v>
       </c>
@@ -8155,7 +8061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="14.4">
       <c r="A18" s="23">
         <v>16</v>
       </c>
@@ -8184,7 +8090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="14.4">
       <c r="A19" s="23">
         <v>17</v>
       </c>
@@ -8213,7 +8119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="14.4">
       <c r="A20" s="23">
         <v>18</v>
       </c>
@@ -8242,7 +8148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="14.4">
       <c r="A21" s="23">
         <v>19</v>
       </c>
@@ -8271,7 +8177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="14.4">
       <c r="A22" s="23">
         <v>20</v>
       </c>
@@ -8300,7 +8206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="14.4">
       <c r="A23" s="23">
         <v>21</v>
       </c>
@@ -8329,7 +8235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="14.4">
       <c r="A24" s="23">
         <v>22</v>
       </c>
@@ -8343,7 +8249,7 @@
         <v>0.99500000000000022</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="F24" s="61">
         <v>1</v>
@@ -8358,7 +8264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="14.4">
       <c r="A25" s="23">
         <v>23</v>
       </c>
@@ -8387,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="14.4">
       <c r="A26" s="23">
         <v>24</v>
       </c>
@@ -8416,7 +8322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="32">
         <v>25</v>
       </c>
@@ -8446,34 +8352,30 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:I4 A6:I26 A5:D5 F5:I5">
-    <cfRule type="expression" dxfId="48" priority="2">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A3:I26">
+    <cfRule type="expression" dxfId="42" priority="1">
       <formula>AND($Q3=1,$Q4=0)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A27:I27">
+    <cfRule type="expression" dxfId="41" priority="20">
+      <formula>AND($Q27=1,$H28=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="46" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="lessThan">
       <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:I27">
-    <cfRule type="expression" dxfId="44" priority="20">
-      <formula>AND($Q27=1,$H28=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="43" priority="1">
-      <formula>AND($Q5=1,$Q6=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8481,26 +8383,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="84.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="77.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="77.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1">
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="3">
         <v>0</v>
@@ -8510,19 +8412,19 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="H1" s="7">
         <v>167</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="102" thickBot="1">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -8551,7 +8453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -8565,7 +8467,7 @@
         <v>0.13700000000000001</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" s="59">
         <v>1</v>
@@ -8580,7 +8482,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4">
       <c r="A4" s="23">
         <v>2</v>
       </c>
@@ -8609,7 +8511,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4">
       <c r="A5" s="23">
         <v>3</v>
       </c>
@@ -8638,7 +8540,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -8667,7 +8569,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4">
       <c r="A7" s="23">
         <v>5</v>
       </c>
@@ -8696,7 +8598,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4">
       <c r="A8" s="23">
         <v>6</v>
       </c>
@@ -8725,7 +8627,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4">
       <c r="A9" s="23">
         <v>7</v>
       </c>
@@ -8754,7 +8656,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4">
       <c r="A10" s="23">
         <v>8</v>
       </c>
@@ -8783,7 +8685,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4">
       <c r="A11" s="23">
         <v>9</v>
       </c>
@@ -8812,7 +8714,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4">
       <c r="A12" s="23">
         <v>10</v>
       </c>
@@ -8841,7 +8743,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4">
       <c r="A13" s="23">
         <v>11</v>
       </c>
@@ -8870,7 +8772,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4">
       <c r="A14" s="23">
         <v>12</v>
       </c>
@@ -8899,7 +8801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4">
       <c r="A15" s="23">
         <v>13</v>
       </c>
@@ -8928,7 +8830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4">
       <c r="A16" s="23">
         <v>14</v>
       </c>
@@ -8957,12 +8859,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4">
       <c r="A17" s="23">
         <v>15</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="25">
         <v>1.9E-2</v>
@@ -8971,7 +8873,7 @@
         <v>0.88800000000000023</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F17" s="61">
         <v>1</v>
@@ -8986,7 +8888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="14.4">
       <c r="A18" s="23">
         <v>16</v>
       </c>
@@ -9015,7 +8917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="14.4">
       <c r="A19" s="23">
         <v>17</v>
       </c>
@@ -9044,12 +8946,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="14.4">
       <c r="A20" s="23">
         <v>18</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="25">
         <v>1.2E-2</v>
@@ -9058,7 +8960,7 @@
         <v>0.92800000000000027</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F20" s="61">
         <v>1</v>
@@ -9073,12 +8975,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="14.4">
       <c r="A21" s="23">
         <v>19</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="25">
         <v>1.2E-2</v>
@@ -9087,7 +8989,7 @@
         <v>0.94000000000000028</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F21" s="61">
         <v>1</v>
@@ -9102,7 +9004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="14.4">
       <c r="A22" s="32">
         <v>20</v>
       </c>
@@ -9131,7 +9033,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="14.4">
       <c r="A23" s="14">
         <v>21</v>
       </c>
@@ -9160,7 +9062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="14.4">
       <c r="A24" s="23">
         <v>22</v>
       </c>
@@ -9189,7 +9091,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="14.4">
       <c r="A25" s="23">
         <v>23</v>
       </c>
@@ -9218,7 +9120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="14.4">
       <c r="A26" s="23">
         <v>24</v>
       </c>
@@ -9247,7 +9149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="32">
         <v>25</v>
       </c>
@@ -9277,840 +9179,15 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:I26 A3:D3 F3:I3">
-    <cfRule type="expression" dxfId="42" priority="2">
-      <formula>AND($Q3=1,$Q4=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="lessThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:I27">
-    <cfRule type="expression" dxfId="38" priority="18">
-      <formula>AND($Q27=1,$H28=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A3:I26">
     <cfRule type="expression" dxfId="37" priority="1">
       <formula>AND($Q3=1,$Q4=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="84.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="77.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="3">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="7">
-        <v>139</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="16">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="59">
-        <v>1</v>
-      </c>
-      <c r="G3" s="60">
-        <v>0.39318677889592757</v>
-      </c>
-      <c r="H3" s="47">
-        <v>2.0136341916178191E-2</v>
-      </c>
-      <c r="I3" s="48">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
-        <v>2</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="25">
-        <v>0.112</v>
-      </c>
-      <c r="D4" s="26">
-        <v>0.505</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="61">
-        <v>1</v>
-      </c>
-      <c r="G4" s="62">
-        <v>0.11173810803650737</v>
-      </c>
-      <c r="H4" s="30">
-        <v>1.5600439816389006E-2</v>
-      </c>
-      <c r="I4" s="31">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
-        <v>3</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="25">
-        <v>0.106</v>
-      </c>
-      <c r="D5" s="26">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="61">
-        <v>1</v>
-      </c>
-      <c r="G5" s="62">
-        <v>0.1058827407684384</v>
-      </c>
-      <c r="H5" s="30">
-        <v>1.3391128878156688E-2</v>
-      </c>
-      <c r="I5" s="31">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
-        <v>4</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="25">
-        <v>9.4E-2</v>
-      </c>
-      <c r="D6" s="26">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="61">
-        <v>1</v>
-      </c>
-      <c r="G6" s="62">
-        <v>9.3624332598156654E-2</v>
-      </c>
-      <c r="H6" s="30">
-        <v>2.1199293390384899E-2</v>
-      </c>
-      <c r="I6" s="31">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
-        <v>5</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="25">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="D7" s="26">
-        <v>0.79199999999999993</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="61">
-        <v>1</v>
-      </c>
-      <c r="G7" s="62">
-        <v>8.7467740577355554E-2</v>
-      </c>
-      <c r="H7" s="30">
-        <v>8.1308191416304965E-3</v>
-      </c>
-      <c r="I7" s="31">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
-        <v>6</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="25">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="D8" s="26">
-        <v>0.85</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="61">
-        <v>1</v>
-      </c>
-      <c r="G8" s="62">
-        <v>5.8353278051594293E-2</v>
-      </c>
-      <c r="H8" s="30">
-        <v>1.5293328282505778E-2</v>
-      </c>
-      <c r="I8" s="31">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
-        <v>7</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="25">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="D9" s="26">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="61">
-        <v>1</v>
-      </c>
-      <c r="G9" s="62">
-        <v>5.6882593316829849E-2</v>
-      </c>
-      <c r="H9" s="30">
-        <v>1.1418492341789301E-2</v>
-      </c>
-      <c r="I9" s="31">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
-        <v>8</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="25">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="D10" s="26">
-        <v>0.92</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="61">
-        <v>1</v>
-      </c>
-      <c r="G10" s="62">
-        <v>1.2653990147510409E-2</v>
-      </c>
-      <c r="H10" s="30">
-        <v>6.8870875494061665E-3</v>
-      </c>
-      <c r="I10" s="31">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
-        <v>9</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="25">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D11" s="26">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="61">
-        <v>1</v>
-      </c>
-      <c r="G11" s="62">
-        <v>1.2005895278269138E-2</v>
-      </c>
-      <c r="H11" s="30">
-        <v>6.4573875495568143E-3</v>
-      </c>
-      <c r="I11" s="31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
-        <v>10</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="25">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="D12" s="26">
-        <v>0.94100000000000006</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="61">
-        <v>1</v>
-      </c>
-      <c r="G12" s="62">
-        <v>8.6924339535875087E-3</v>
-      </c>
-      <c r="H12" s="30">
-        <v>9.1438698356706791E-3</v>
-      </c>
-      <c r="I12" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
-        <v>11</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="25">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D13" s="26">
-        <v>0.94900000000000007</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="61">
-        <v>1</v>
-      </c>
-      <c r="G13" s="62">
-        <v>7.8528882140765401E-3</v>
-      </c>
-      <c r="H13" s="30">
-        <v>3.6847346418506883E-3</v>
-      </c>
-      <c r="I13" s="31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
-        <v>12</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="34">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="D14" s="35">
-        <v>0.95600000000000007</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="63">
-        <v>1</v>
-      </c>
-      <c r="G14" s="64">
-        <v>7.1435430944208492E-3</v>
-      </c>
-      <c r="H14" s="39">
-        <v>4.2893118097479289E-3</v>
-      </c>
-      <c r="I14" s="40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
-        <v>13</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="42">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D15" s="43">
-        <v>0.96200000000000008</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="65">
-        <v>1</v>
-      </c>
-      <c r="G15" s="60">
-        <v>6.0272940003337615E-3</v>
-      </c>
-      <c r="H15" s="47">
-        <v>4.0470081484134859E-3</v>
-      </c>
-      <c r="I15" s="48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
-        <v>14</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="25">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D16" s="26">
-        <v>0.96800000000000008</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="61">
-        <v>1</v>
-      </c>
-      <c r="G16" s="62">
-        <v>5.7319316936830745E-3</v>
-      </c>
-      <c r="H16" s="30">
-        <v>3.0263979777946336E-3</v>
-      </c>
-      <c r="I16" s="31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
-        <v>15</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="25">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D17" s="26">
-        <v>0.97300000000000009</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="61">
-        <v>1</v>
-      </c>
-      <c r="G17" s="62">
-        <v>5.0740222600599294E-3</v>
-      </c>
-      <c r="H17" s="30">
-        <v>3.3454683366199059E-3</v>
-      </c>
-      <c r="I17" s="31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
-        <v>16</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="25">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D18" s="26">
-        <v>0.97800000000000009</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="61">
-        <v>1</v>
-      </c>
-      <c r="G18" s="62">
-        <v>4.8870135518180495E-3</v>
-      </c>
-      <c r="H18" s="30">
-        <v>2.3651036794879524E-3</v>
-      </c>
-      <c r="I18" s="31">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
-        <v>17</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="25">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D19" s="26">
-        <v>0.9830000000000001</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="61">
-        <v>1</v>
-      </c>
-      <c r="G19" s="62">
-        <v>4.7215784153059265E-3</v>
-      </c>
-      <c r="H19" s="30">
-        <v>3.2912299655856732E-3</v>
-      </c>
-      <c r="I19" s="31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
-        <v>18</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="25">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D20" s="26">
-        <v>0.9860000000000001</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="61">
-        <v>1</v>
-      </c>
-      <c r="G20" s="62">
-        <v>3.3181020022870632E-3</v>
-      </c>
-      <c r="H20" s="30">
-        <v>1.8799080059373097E-3</v>
-      </c>
-      <c r="I20" s="31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
-        <v>19</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="25">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D21" s="26">
-        <v>0.9890000000000001</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="61">
-        <v>1</v>
-      </c>
-      <c r="G21" s="62">
-        <v>2.681170221946761E-3</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
-        <v>20</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="25">
-        <v>2E-3</v>
-      </c>
-      <c r="D22" s="26">
-        <v>0.9910000000000001</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="61">
-        <v>1</v>
-      </c>
-      <c r="G22" s="62">
-        <v>2.2955563919880833E-3</v>
-      </c>
-      <c r="H22" s="30">
-        <v>4.7780101024963179E-4</v>
-      </c>
-      <c r="I22" s="31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
-        <v>21</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="25">
-        <v>2E-3</v>
-      </c>
-      <c r="D23" s="26">
-        <v>0.9930000000000001</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="61">
-        <v>1</v>
-      </c>
-      <c r="G23" s="62">
-        <v>2.2136137244050916E-3</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
-        <v>22</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="25">
-        <v>2E-3</v>
-      </c>
-      <c r="D24" s="25">
-        <v>0.99500000000000011</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="61">
-        <v>1</v>
-      </c>
-      <c r="G24" s="62">
-        <v>1.9722106104786102E-3</v>
-      </c>
-      <c r="H24" s="30">
-        <v>1.7614711389336304E-3</v>
-      </c>
-      <c r="I24" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
-        <v>23</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="25">
-        <v>2E-3</v>
-      </c>
-      <c r="D25" s="49">
-        <v>0.99700000000000011</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="61">
-        <v>1</v>
-      </c>
-      <c r="G25" s="62">
-        <v>1.9617371832706563E-3</v>
-      </c>
-      <c r="H25" s="30">
-        <v>1.0292451498777719E-3</v>
-      </c>
-      <c r="I25" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
-        <v>24</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="25">
-        <v>2E-3</v>
-      </c>
-      <c r="D26" s="49">
-        <v>0.99900000000000011</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="61">
-        <v>1</v>
-      </c>
-      <c r="G26" s="62">
-        <v>1.6748595151909701E-3</v>
-      </c>
-      <c r="H26" s="30">
-        <v>6.7499989266736529E-4</v>
-      </c>
-      <c r="I26" s="31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32">
-        <v>25</v>
-      </c>
-      <c r="B27" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="52">
-        <v>1E-3</v>
-      </c>
-      <c r="D27" s="53">
-        <v>1</v>
-      </c>
-      <c r="E27" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="66">
-        <v>1</v>
-      </c>
-      <c r="G27" s="64">
-        <v>1.128167056335666E-3</v>
-      </c>
-      <c r="H27" s="39">
-        <v>7.4259257192136924E-4</v>
-      </c>
-      <c r="I27" s="40">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A3:I5 A7:I26 A6:D6 F6:I6">
-    <cfRule type="expression" dxfId="36" priority="2">
-      <formula>AND($Q3=1,$Q4=0)</formula>
+  <conditionalFormatting sqref="A27:I27">
+    <cfRule type="expression" dxfId="36" priority="18">
+      <formula>AND($Q27=1,$H28=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
@@ -10128,14 +9205,831 @@
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="84.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="77.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="7">
+        <v>139</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="102" thickBot="1">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.4">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="59">
+        <v>1</v>
+      </c>
+      <c r="G3" s="60">
+        <v>0.39318677889592757</v>
+      </c>
+      <c r="H3" s="47">
+        <v>2.0136341916178191E-2</v>
+      </c>
+      <c r="I3" s="48">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.4">
+      <c r="A4" s="23">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.112</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0.505</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="61">
+        <v>1</v>
+      </c>
+      <c r="G4" s="62">
+        <v>0.11173810803650737</v>
+      </c>
+      <c r="H4" s="30">
+        <v>1.5600439816389006E-2</v>
+      </c>
+      <c r="I4" s="31">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.4">
+      <c r="A5" s="23">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.106</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="61">
+        <v>1</v>
+      </c>
+      <c r="G5" s="62">
+        <v>0.1058827407684384</v>
+      </c>
+      <c r="H5" s="30">
+        <v>1.3391128878156688E-2</v>
+      </c>
+      <c r="I5" s="31">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.4">
+      <c r="A6" s="23">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="25">
+        <v>9.4E-2</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="61">
+        <v>1</v>
+      </c>
+      <c r="G6" s="62">
+        <v>9.3624332598156654E-2</v>
+      </c>
+      <c r="H6" s="30">
+        <v>2.1199293390384899E-2</v>
+      </c>
+      <c r="I6" s="31">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.4">
+      <c r="A7" s="23">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="25">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0.79199999999999993</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="61">
+        <v>1</v>
+      </c>
+      <c r="G7" s="62">
+        <v>8.7467740577355554E-2</v>
+      </c>
+      <c r="H7" s="30">
+        <v>8.1308191416304965E-3</v>
+      </c>
+      <c r="I7" s="31">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.4">
+      <c r="A8" s="23">
+        <v>6</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="25">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D8" s="26">
+        <v>0.85</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="61">
+        <v>1</v>
+      </c>
+      <c r="G8" s="62">
+        <v>5.8353278051594293E-2</v>
+      </c>
+      <c r="H8" s="30">
+        <v>1.5293328282505778E-2</v>
+      </c>
+      <c r="I8" s="31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.4">
+      <c r="A9" s="23">
+        <v>7</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="25">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="61">
+        <v>1</v>
+      </c>
+      <c r="G9" s="62">
+        <v>5.6882593316829849E-2</v>
+      </c>
+      <c r="H9" s="30">
+        <v>1.1418492341789301E-2</v>
+      </c>
+      <c r="I9" s="31">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.4">
+      <c r="A10" s="23">
+        <v>8</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="25">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D10" s="26">
+        <v>0.92</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="61">
+        <v>1</v>
+      </c>
+      <c r="G10" s="62">
+        <v>1.2653990147510409E-2</v>
+      </c>
+      <c r="H10" s="30">
+        <v>6.8870875494061665E-3</v>
+      </c>
+      <c r="I10" s="31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.4">
+      <c r="A11" s="23">
+        <v>9</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="25">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="61">
+        <v>1</v>
+      </c>
+      <c r="G11" s="62">
+        <v>1.2005895278269138E-2</v>
+      </c>
+      <c r="H11" s="30">
+        <v>6.4573875495568143E-3</v>
+      </c>
+      <c r="I11" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.4">
+      <c r="A12" s="23">
+        <v>10</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="25">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0.94100000000000006</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="61">
+        <v>1</v>
+      </c>
+      <c r="G12" s="62">
+        <v>8.6924339535875087E-3</v>
+      </c>
+      <c r="H12" s="30">
+        <v>9.1438698356706791E-3</v>
+      </c>
+      <c r="I12" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.4">
+      <c r="A13" s="23">
+        <v>11</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D13" s="26">
+        <v>0.94900000000000007</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="61">
+        <v>1</v>
+      </c>
+      <c r="G13" s="62">
+        <v>7.8528882140765401E-3</v>
+      </c>
+      <c r="H13" s="30">
+        <v>3.6847346418506883E-3</v>
+      </c>
+      <c r="I13" s="31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.4">
+      <c r="A14" s="32">
+        <v>12</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="34">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D14" s="35">
+        <v>0.95600000000000007</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="63">
+        <v>1</v>
+      </c>
+      <c r="G14" s="64">
+        <v>7.1435430944208492E-3</v>
+      </c>
+      <c r="H14" s="39">
+        <v>4.2893118097479289E-3</v>
+      </c>
+      <c r="I14" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.4">
+      <c r="A15" s="14">
+        <v>13</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="42">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D15" s="43">
+        <v>0.96200000000000008</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="65">
+        <v>1</v>
+      </c>
+      <c r="G15" s="60">
+        <v>6.0272940003337615E-3</v>
+      </c>
+      <c r="H15" s="47">
+        <v>4.0470081484134859E-3</v>
+      </c>
+      <c r="I15" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.4">
+      <c r="A16" s="23">
+        <v>14</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D16" s="26">
+        <v>0.96800000000000008</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="61">
+        <v>1</v>
+      </c>
+      <c r="G16" s="62">
+        <v>5.7319316936830745E-3</v>
+      </c>
+      <c r="H16" s="30">
+        <v>3.0263979777946336E-3</v>
+      </c>
+      <c r="I16" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.4">
+      <c r="A17" s="23">
+        <v>15</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0.97300000000000009</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="61">
+        <v>1</v>
+      </c>
+      <c r="G17" s="62">
+        <v>5.0740222600599294E-3</v>
+      </c>
+      <c r="H17" s="30">
+        <v>3.3454683366199059E-3</v>
+      </c>
+      <c r="I17" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.4">
+      <c r="A18" s="23">
+        <v>16</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D18" s="26">
+        <v>0.97800000000000009</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="61">
+        <v>1</v>
+      </c>
+      <c r="G18" s="62">
+        <v>4.8870135518180495E-3</v>
+      </c>
+      <c r="H18" s="30">
+        <v>2.3651036794879524E-3</v>
+      </c>
+      <c r="I18" s="31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.4">
+      <c r="A19" s="23">
+        <v>17</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D19" s="26">
+        <v>0.9830000000000001</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="61">
+        <v>1</v>
+      </c>
+      <c r="G19" s="62">
+        <v>4.7215784153059265E-3</v>
+      </c>
+      <c r="H19" s="30">
+        <v>3.2912299655856732E-3</v>
+      </c>
+      <c r="I19" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.4">
+      <c r="A20" s="23">
+        <v>18</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D20" s="26">
+        <v>0.9860000000000001</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="61">
+        <v>1</v>
+      </c>
+      <c r="G20" s="62">
+        <v>3.3181020022870632E-3</v>
+      </c>
+      <c r="H20" s="30">
+        <v>1.8799080059373097E-3</v>
+      </c>
+      <c r="I20" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.4">
+      <c r="A21" s="23">
+        <v>19</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D21" s="26">
+        <v>0.9890000000000001</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="61">
+        <v>1</v>
+      </c>
+      <c r="G21" s="62">
+        <v>2.681170221946761E-3</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.4">
+      <c r="A22" s="23">
+        <v>20</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="25">
+        <v>2E-3</v>
+      </c>
+      <c r="D22" s="26">
+        <v>0.9910000000000001</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="61">
+        <v>1</v>
+      </c>
+      <c r="G22" s="62">
+        <v>2.2955563919880833E-3</v>
+      </c>
+      <c r="H22" s="30">
+        <v>4.7780101024963179E-4</v>
+      </c>
+      <c r="I22" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.4">
+      <c r="A23" s="23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="25">
+        <v>2E-3</v>
+      </c>
+      <c r="D23" s="26">
+        <v>0.9930000000000001</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="61">
+        <v>1</v>
+      </c>
+      <c r="G23" s="62">
+        <v>2.2136137244050916E-3</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.4">
+      <c r="A24" s="23">
+        <v>22</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="25">
+        <v>2E-3</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0.99500000000000011</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="61">
+        <v>1</v>
+      </c>
+      <c r="G24" s="62">
+        <v>1.9722106104786102E-3</v>
+      </c>
+      <c r="H24" s="30">
+        <v>1.7614711389336304E-3</v>
+      </c>
+      <c r="I24" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.4">
+      <c r="A25" s="23">
+        <v>23</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="25">
+        <v>2E-3</v>
+      </c>
+      <c r="D25" s="49">
+        <v>0.99700000000000011</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="61">
+        <v>1</v>
+      </c>
+      <c r="G25" s="62">
+        <v>1.9617371832706563E-3</v>
+      </c>
+      <c r="H25" s="30">
+        <v>1.0292451498777719E-3</v>
+      </c>
+      <c r="I25" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.4">
+      <c r="A26" s="23">
+        <v>24</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="25">
+        <v>2E-3</v>
+      </c>
+      <c r="D26" s="49">
+        <v>0.99900000000000011</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="61">
+        <v>1</v>
+      </c>
+      <c r="G26" s="62">
+        <v>1.6748595151909701E-3</v>
+      </c>
+      <c r="H26" s="30">
+        <v>6.7499989266736529E-4</v>
+      </c>
+      <c r="I26" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" thickBot="1">
+      <c r="A27" s="32">
+        <v>25</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="52">
+        <v>1E-3</v>
+      </c>
+      <c r="D27" s="53">
+        <v>1</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="66">
+        <v>1</v>
+      </c>
+      <c r="G27" s="64">
+        <v>1.128167056335666E-3</v>
+      </c>
+      <c r="H27" s="39">
+        <v>7.4259257192136924E-4</v>
+      </c>
+      <c r="I27" s="40">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A3:I26">
+    <cfRule type="expression" dxfId="32" priority="1">
+      <formula>AND($Q3=1,$Q4=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A27:I27">
-    <cfRule type="expression" dxfId="32" priority="16">
+    <cfRule type="expression" dxfId="31" priority="16">
       <formula>AND($Q27=1,$H28=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="31" priority="1">
-      <formula>AND($Q6=1,$Q7=0)</formula>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="lessThan">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -10143,26 +10037,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="84.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="77.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="77.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" s="3">
         <v>0</v>
@@ -10172,19 +10066,19 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="H1" s="7">
         <v>285</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="102" thickBot="1">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -10213,7 +10107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -10242,7 +10136,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4">
       <c r="A4" s="23">
         <v>2</v>
       </c>
@@ -10271,7 +10165,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4">
       <c r="A5" s="23">
         <v>3</v>
       </c>
@@ -10300,7 +10194,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -10329,7 +10223,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4">
       <c r="A7" s="23">
         <v>5</v>
       </c>
@@ -10358,7 +10252,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4">
       <c r="A8" s="23">
         <v>6</v>
       </c>
@@ -10372,7 +10266,7 @@
         <v>0.74199999999999999</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" s="61">
         <v>1</v>
@@ -10387,7 +10281,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4">
       <c r="A9" s="23">
         <v>7</v>
       </c>
@@ -10416,7 +10310,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4">
       <c r="A10" s="23">
         <v>8</v>
       </c>
@@ -10445,7 +10339,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4">
       <c r="A11" s="23">
         <v>9</v>
       </c>
@@ -10474,7 +10368,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4">
       <c r="A12" s="23">
         <v>10</v>
       </c>
@@ -10503,7 +10397,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4">
       <c r="A13" s="23">
         <v>11</v>
       </c>
@@ -10532,7 +10426,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4">
       <c r="A14" s="23">
         <v>12</v>
       </c>
@@ -10561,7 +10455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4">
       <c r="A15" s="32">
         <v>13</v>
       </c>
@@ -10590,7 +10484,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4">
       <c r="A16" s="14">
         <v>14</v>
       </c>
@@ -10619,7 +10513,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4">
       <c r="A17" s="23">
         <v>15</v>
       </c>
@@ -10648,7 +10542,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="14.4">
       <c r="A18" s="23">
         <v>16</v>
       </c>
@@ -10677,7 +10571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="14.4">
       <c r="A19" s="23">
         <v>17</v>
       </c>
@@ -10706,7 +10600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="14.4">
       <c r="A20" s="23">
         <v>18</v>
       </c>
@@ -10735,7 +10629,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="14.4">
       <c r="A21" s="23">
         <v>19</v>
       </c>
@@ -10764,7 +10658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="14.4">
       <c r="A22" s="23">
         <v>20</v>
       </c>
@@ -10793,7 +10687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="14.4">
       <c r="A23" s="23">
         <v>21</v>
       </c>
@@ -10822,7 +10716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="14.4">
       <c r="A24" s="23">
         <v>22</v>
       </c>
@@ -10851,12 +10745,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="14.4">
       <c r="A25" s="23">
         <v>23</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" s="25">
         <v>2E-3</v>
@@ -10865,7 +10759,7 @@
         <v>0.99400000000000022</v>
       </c>
       <c r="E25" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F25" s="61">
         <v>1</v>
@@ -10880,7 +10774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="14.4">
       <c r="A26" s="23">
         <v>24</v>
       </c>
@@ -10909,7 +10803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="32">
         <v>25</v>
       </c>
@@ -10939,24 +10833,10 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:I7 A9:I26 A8:D8 F8:I8">
-    <cfRule type="expression" dxfId="30" priority="2">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A3:I26">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>AND($Q3=1,$Q4=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="lessThan">
-      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:I27">
@@ -10964,9 +10844,19 @@
       <formula>AND($Q27=1,$H28=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="25" priority="1">
-      <formula>AND($Q8=1,$Q9=0)</formula>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -10974,26 +10864,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="84.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="77.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="77.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" s="3">
         <v>0</v>
@@ -11003,19 +10893,19 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="H1" s="7">
         <v>503</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="102" thickBot="1">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -11044,7 +10934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -11073,7 +10963,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4">
       <c r="A4" s="23">
         <v>2</v>
       </c>
@@ -11102,7 +10992,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4">
       <c r="A5" s="23">
         <v>3</v>
       </c>
@@ -11131,7 +11021,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -11160,7 +11050,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4">
       <c r="A7" s="23">
         <v>5</v>
       </c>
@@ -11189,7 +11079,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4">
       <c r="A8" s="23">
         <v>6</v>
       </c>
@@ -11218,7 +11108,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4">
       <c r="A9" s="23">
         <v>7</v>
       </c>
@@ -11232,7 +11122,7 @@
         <v>0.8600000000000001</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9" s="61">
         <v>1</v>
@@ -11247,7 +11137,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4">
       <c r="A10" s="23">
         <v>8</v>
       </c>
@@ -11276,7 +11166,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4">
       <c r="A11" s="23">
         <v>9</v>
       </c>
@@ -11305,7 +11195,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4">
       <c r="A12" s="23">
         <v>10</v>
       </c>
@@ -11334,7 +11224,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4">
       <c r="A13" s="32">
         <v>11</v>
       </c>
@@ -11363,7 +11253,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4">
       <c r="A14" s="14">
         <v>12</v>
       </c>
@@ -11392,7 +11282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4">
       <c r="A15" s="23">
         <v>13</v>
       </c>
@@ -11421,12 +11311,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4">
       <c r="A16" s="23">
         <v>14</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" s="25">
         <v>7.0000000000000001E-3</v>
@@ -11435,7 +11325,7 @@
         <v>0.9770000000000002</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="F16" s="61">
         <v>1</v>
@@ -11450,7 +11340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4">
       <c r="A17" s="23">
         <v>15</v>
       </c>
@@ -11479,7 +11369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="14.4">
       <c r="A18" s="23">
         <v>16</v>
       </c>
@@ -11508,7 +11398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="14.4">
       <c r="A19" s="23">
         <v>17</v>
       </c>
@@ -11537,7 +11427,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="14.4">
       <c r="A20" s="23">
         <v>18</v>
       </c>
@@ -11566,7 +11456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="14.4">
       <c r="A21" s="23">
         <v>19</v>
       </c>
@@ -11595,7 +11485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="14.4">
       <c r="A22" s="23">
         <v>20</v>
       </c>
@@ -11624,7 +11514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="14.4">
       <c r="A23" s="23">
         <v>21</v>
       </c>
@@ -11653,7 +11543,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="14.4">
       <c r="A24" s="23">
         <v>22</v>
       </c>
@@ -11682,7 +11572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="14.4">
       <c r="A25" s="23">
         <v>23</v>
       </c>
@@ -11711,7 +11601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="14.4">
       <c r="A26" s="23">
         <v>24</v>
       </c>
@@ -11740,7 +11630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="32">
         <v>25</v>
       </c>
@@ -11770,34 +11660,30 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:I8 A10:I26 A9:D9 F9:I9">
-    <cfRule type="expression" dxfId="24" priority="2">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A3:I26">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>AND($Q3=1,$Q4=0)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A27:I27">
+    <cfRule type="expression" dxfId="21" priority="12">
+      <formula>AND($Q27=1,$H28=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
       <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:I27">
-    <cfRule type="expression" dxfId="20" priority="12">
-      <formula>AND($Q27=1,$H28=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="19" priority="1">
-      <formula>AND($Q9=1,$Q10=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
